--- a/To Do list.xlsx
+++ b/To Do list.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59FF81-E2C5-4373-BF80-3EB5B5F373CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TDL" sheetId="1" r:id="rId4"/>
+    <sheet name="TDL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Tâche</t>
   </si>
@@ -66,29 +75,63 @@
   <si>
     <t>Ajouter les IA</t>
   </si>
+  <si>
+    <t>identifier commentaires positifs ou négatif</t>
+  </si>
+  <si>
+    <t>faire moyenne des score dans Movie</t>
+  </si>
+  <si>
+    <t>des calculs de stats de Bdd</t>
+  </si>
+  <si>
+    <t>trier par ordre chronologique commentaires dans Movie</t>
+  </si>
+  <si>
+    <t>Ajouter class panier</t>
+  </si>
+  <si>
+    <t>Ajouter attributs à Movie</t>
+  </si>
+  <si>
+    <t>attribut prix en long</t>
+  </si>
+  <si>
+    <t>Ajouter attributs à User</t>
+  </si>
+  <si>
+    <t>panier, factures</t>
+  </si>
+  <si>
+    <t>Ajouter class Facture</t>
+  </si>
+  <si>
+    <t>dans l'UML et dans le code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -99,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -109,56 +152,103 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font/>
+      <font>
+        <color rgb="FFB6D7A8"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEA9999"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB4A7D6"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFEFEFEF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -171,77 +261,30 @@
           <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FFEFEFEF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB4A7D6"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEA9999"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB6D7A8"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -431,29 +474,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y970"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="33.38"/>
-    <col customWidth="1" min="3" max="3" width="13.88"/>
-    <col customWidth="1" min="4" max="4" width="15.63"/>
-    <col customWidth="1" min="5" max="5" width="14.38"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +536,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="5">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -527,7 +573,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -536,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5">
-        <v>45383.0</v>
+        <v>45383</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -562,7 +608,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -595,7 +641,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -626,7 +672,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -657,7 +703,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -688,9 +734,13 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -717,12 +767,18 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -744,12 +800,18 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -771,12 +833,18 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -798,12 +866,16 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -825,12 +897,18 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -852,12 +930,18 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -879,12 +963,18 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -906,7 +996,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -933,7 +1023,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -960,7 +1050,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -987,7 +1077,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1014,7 +1104,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1041,7 +1131,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1068,7 +1158,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1095,7 +1185,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1122,7 +1212,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1149,7 +1239,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1176,7 +1266,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1203,7 +1293,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1230,7 +1320,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1257,7 +1347,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1284,7 +1374,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1311,7 +1401,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1338,7 +1428,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1365,7 +1455,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1392,7 +1482,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1419,7 +1509,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1446,7 +1536,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1473,7 +1563,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1500,7 +1590,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1527,7 +1617,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1554,7 +1644,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4"/>
@@ -1581,7 +1671,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1608,7 +1698,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1635,7 +1725,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1662,7 +1752,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1689,7 +1779,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1716,7 +1806,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1743,7 +1833,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1770,7 +1860,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1797,7 +1887,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1824,7 +1914,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1851,7 +1941,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1878,7 +1968,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1905,7 +1995,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1932,7 +2022,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1959,7 +2049,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1986,7 +2076,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2013,7 +2103,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2040,7 +2130,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2067,7 +2157,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2094,7 +2184,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2121,7 +2211,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2148,7 +2238,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2175,7 +2265,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2202,7 +2292,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2229,7 +2319,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2256,7 +2346,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2283,7 +2373,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2310,7 +2400,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2337,7 +2427,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2364,7 +2454,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2391,7 +2481,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2418,7 +2508,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2445,7 +2535,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2472,7 +2562,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2499,7 +2589,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2526,7 +2616,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2553,7 +2643,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2580,7 +2670,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2607,7 +2697,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2634,7 +2724,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2661,7 +2751,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2688,7 +2778,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2715,7 +2805,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2742,7 +2832,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2769,7 +2859,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2796,7 +2886,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2823,7 +2913,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2850,7 +2940,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2877,7 +2967,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2904,7 +2994,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2931,7 +3021,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2958,7 +3048,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2985,7 +3075,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3012,7 +3102,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3039,7 +3129,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3066,7 +3156,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3093,7 +3183,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3120,7 +3210,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3147,7 +3237,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3174,7 +3264,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3201,7 +3291,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3228,7 +3318,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3255,7 +3345,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3282,7 +3372,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3309,7 +3399,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3336,7 +3426,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3363,7 +3453,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3390,7 +3480,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3417,7 +3507,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3444,7 +3534,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3471,7 +3561,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3498,7 +3588,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3525,7 +3615,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3552,7 +3642,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3579,7 +3669,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3606,7 +3696,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3633,7 +3723,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3660,7 +3750,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3687,7 +3777,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3714,7 +3804,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3741,7 +3831,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3768,7 +3858,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3795,7 +3885,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -3822,7 +3912,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -3849,7 +3939,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -3876,7 +3966,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3903,7 +3993,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -3930,7 +4020,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -3957,7 +4047,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -3984,7 +4074,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -4011,7 +4101,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -4038,7 +4128,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -4065,7 +4155,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -4092,7 +4182,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -4119,7 +4209,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -4146,7 +4236,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -4173,7 +4263,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -4200,7 +4290,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -4227,7 +4317,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -4254,7 +4344,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -4281,7 +4371,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -4308,7 +4398,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -4335,7 +4425,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -4362,7 +4452,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -4389,7 +4479,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -4416,7 +4506,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -4443,7 +4533,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -4470,7 +4560,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -4497,7 +4587,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -4524,7 +4614,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -4551,7 +4641,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -4578,7 +4668,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -4605,7 +4695,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -4632,7 +4722,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -4659,7 +4749,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -4686,7 +4776,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4713,7 +4803,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -4740,7 +4830,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -4767,7 +4857,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -4794,7 +4884,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -4821,7 +4911,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -4848,7 +4938,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -4875,7 +4965,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -4902,7 +4992,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -4929,7 +5019,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -4956,7 +5046,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -4983,7 +5073,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -5010,7 +5100,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5037,7 +5127,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -5064,7 +5154,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -5091,7 +5181,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5118,7 +5208,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5145,7 +5235,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5172,7 +5262,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5199,7 +5289,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5226,7 +5316,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5253,7 +5343,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5280,7 +5370,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5307,7 +5397,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5334,7 +5424,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5361,7 +5451,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5388,7 +5478,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5415,7 +5505,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5442,7 +5532,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5469,7 +5559,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5496,7 +5586,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5523,7 +5613,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5550,7 +5640,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5577,7 +5667,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5604,7 +5694,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5631,7 +5721,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -5658,7 +5748,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -5685,7 +5775,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -5712,7 +5802,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -5739,7 +5829,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -5766,7 +5856,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -5793,7 +5883,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -5820,7 +5910,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -5847,7 +5937,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -5874,7 +5964,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -5901,7 +5991,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -5928,7 +6018,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -5955,7 +6045,7 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -5982,7 +6072,7 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -6009,7 +6099,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -6036,7 +6126,7 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -6063,7 +6153,7 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -6090,7 +6180,7 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -6117,7 +6207,7 @@
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -6144,7 +6234,7 @@
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -6171,7 +6261,7 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -6198,7 +6288,7 @@
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -6225,7 +6315,7 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -6252,7 +6342,7 @@
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -6279,7 +6369,7 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -6306,7 +6396,7 @@
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -6333,7 +6423,7 @@
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -6360,7 +6450,7 @@
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -6387,7 +6477,7 @@
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -6414,7 +6504,7 @@
       <c r="X219" s="3"/>
       <c r="Y219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -6441,7 +6531,7 @@
       <c r="X220" s="3"/>
       <c r="Y220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -6468,7 +6558,7 @@
       <c r="X221" s="3"/>
       <c r="Y221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -6495,7 +6585,7 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -6522,7 +6612,7 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -6549,7 +6639,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -6576,7 +6666,7 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -6603,7 +6693,7 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -6630,7 +6720,7 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -6657,7 +6747,7 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -6684,7 +6774,7 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -6711,7 +6801,7 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -6738,7 +6828,7 @@
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -6765,7 +6855,7 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -6792,7 +6882,7 @@
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -6819,7 +6909,7 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -6846,7 +6936,7 @@
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -6873,7 +6963,7 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -6900,7 +6990,7 @@
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -6927,7 +7017,7 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -6954,7 +7044,7 @@
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -6981,7 +7071,7 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -7008,7 +7098,7 @@
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -7035,7 +7125,7 @@
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -7062,7 +7152,7 @@
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -7089,7 +7179,7 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -7116,7 +7206,7 @@
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -7143,7 +7233,7 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -7170,7 +7260,7 @@
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -7197,7 +7287,7 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -7224,7 +7314,7 @@
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -7251,7 +7341,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -7278,7 +7368,7 @@
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -7305,7 +7395,7 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -7332,7 +7422,7 @@
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -7359,7 +7449,7 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -7386,7 +7476,7 @@
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -7413,7 +7503,7 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -7440,7 +7530,7 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -7467,7 +7557,7 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -7494,7 +7584,7 @@
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -7521,7 +7611,7 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -7548,7 +7638,7 @@
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -7575,7 +7665,7 @@
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -7602,7 +7692,7 @@
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -7629,7 +7719,7 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -7656,7 +7746,7 @@
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -7683,7 +7773,7 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -7710,7 +7800,7 @@
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -7737,7 +7827,7 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -7764,7 +7854,7 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -7791,7 +7881,7 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -7818,7 +7908,7 @@
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -7845,7 +7935,7 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -7872,7 +7962,7 @@
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -7899,7 +7989,7 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -7926,7 +8016,7 @@
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -7953,7 +8043,7 @@
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -7980,7 +8070,7 @@
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -8007,7 +8097,7 @@
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -8034,7 +8124,7 @@
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -8061,7 +8151,7 @@
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -8088,7 +8178,7 @@
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -8115,7 +8205,7 @@
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -8142,7 +8232,7 @@
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -8169,7 +8259,7 @@
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -8196,7 +8286,7 @@
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -8223,7 +8313,7 @@
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -8250,7 +8340,7 @@
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -8277,7 +8367,7 @@
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -8304,7 +8394,7 @@
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -8331,7 +8421,7 @@
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -8358,7 +8448,7 @@
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -8385,7 +8475,7 @@
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -8412,7 +8502,7 @@
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -8439,7 +8529,7 @@
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -8466,7 +8556,7 @@
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -8493,7 +8583,7 @@
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -8520,7 +8610,7 @@
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -8547,7 +8637,7 @@
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -8574,7 +8664,7 @@
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -8601,7 +8691,7 @@
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -8628,7 +8718,7 @@
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -8655,7 +8745,7 @@
       <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -8682,7 +8772,7 @@
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -8709,7 +8799,7 @@
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -8736,7 +8826,7 @@
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -8763,7 +8853,7 @@
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -8790,7 +8880,7 @@
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -8817,7 +8907,7 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -8844,7 +8934,7 @@
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -8871,7 +8961,7 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -8898,7 +8988,7 @@
       <c r="X311" s="3"/>
       <c r="Y311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -8925,7 +9015,7 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -8952,7 +9042,7 @@
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -8979,7 +9069,7 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -9006,7 +9096,7 @@
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -9033,7 +9123,7 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -9060,7 +9150,7 @@
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -9087,7 +9177,7 @@
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -9114,7 +9204,7 @@
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -9141,7 +9231,7 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -9168,7 +9258,7 @@
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -9195,7 +9285,7 @@
       <c r="X322" s="3"/>
       <c r="Y322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -9222,7 +9312,7 @@
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -9249,7 +9339,7 @@
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -9276,7 +9366,7 @@
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -9303,7 +9393,7 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -9330,7 +9420,7 @@
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -9357,7 +9447,7 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -9384,7 +9474,7 @@
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -9411,7 +9501,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -9438,7 +9528,7 @@
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -9465,7 +9555,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -9492,7 +9582,7 @@
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -9519,7 +9609,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -9546,7 +9636,7 @@
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -9573,7 +9663,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -9600,7 +9690,7 @@
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -9627,7 +9717,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -9654,7 +9744,7 @@
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -9681,7 +9771,7 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -9708,7 +9798,7 @@
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -9735,7 +9825,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -9762,7 +9852,7 @@
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -9789,7 +9879,7 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -9816,7 +9906,7 @@
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -9843,7 +9933,7 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -9870,7 +9960,7 @@
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -9897,7 +9987,7 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -9924,7 +10014,7 @@
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -9951,7 +10041,7 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -9978,7 +10068,7 @@
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -10005,7 +10095,7 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -10032,7 +10122,7 @@
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -10059,7 +10149,7 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -10086,7 +10176,7 @@
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -10113,7 +10203,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -10140,7 +10230,7 @@
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -10167,7 +10257,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -10194,7 +10284,7 @@
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -10221,7 +10311,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -10248,7 +10338,7 @@
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -10275,7 +10365,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -10302,7 +10392,7 @@
       <c r="X363" s="3"/>
       <c r="Y363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -10329,7 +10419,7 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -10356,7 +10446,7 @@
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -10383,7 +10473,7 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -10410,7 +10500,7 @@
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -10437,7 +10527,7 @@
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -10464,7 +10554,7 @@
       <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -10491,7 +10581,7 @@
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -10518,7 +10608,7 @@
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -10545,7 +10635,7 @@
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -10572,7 +10662,7 @@
       <c r="X373" s="3"/>
       <c r="Y373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -10599,7 +10689,7 @@
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -10626,7 +10716,7 @@
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -10653,7 +10743,7 @@
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -10680,7 +10770,7 @@
       <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -10707,7 +10797,7 @@
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -10734,7 +10824,7 @@
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -10761,7 +10851,7 @@
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -10788,7 +10878,7 @@
       <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -10815,7 +10905,7 @@
       <c r="X382" s="3"/>
       <c r="Y382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -10842,7 +10932,7 @@
       <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -10869,7 +10959,7 @@
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -10896,7 +10986,7 @@
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -10923,7 +11013,7 @@
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -10950,7 +11040,7 @@
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -10977,7 +11067,7 @@
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -11004,7 +11094,7 @@
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -11031,7 +11121,7 @@
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -11058,7 +11148,7 @@
       <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -11085,7 +11175,7 @@
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -11112,7 +11202,7 @@
       <c r="X393" s="3"/>
       <c r="Y393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -11139,7 +11229,7 @@
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -11166,7 +11256,7 @@
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -11193,7 +11283,7 @@
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -11220,7 +11310,7 @@
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -11247,7 +11337,7 @@
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -11274,7 +11364,7 @@
       <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -11301,7 +11391,7 @@
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -11328,7 +11418,7 @@
       <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -11355,7 +11445,7 @@
       <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -11382,7 +11472,7 @@
       <c r="X403" s="3"/>
       <c r="Y403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -11409,7 +11499,7 @@
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -11436,7 +11526,7 @@
       <c r="X405" s="3"/>
       <c r="Y405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -11463,7 +11553,7 @@
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -11490,7 +11580,7 @@
       <c r="X407" s="3"/>
       <c r="Y407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -11517,7 +11607,7 @@
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -11544,7 +11634,7 @@
       <c r="X409" s="3"/>
       <c r="Y409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -11571,7 +11661,7 @@
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -11598,7 +11688,7 @@
       <c r="X411" s="3"/>
       <c r="Y411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -11625,7 +11715,7 @@
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -11652,7 +11742,7 @@
       <c r="X413" s="3"/>
       <c r="Y413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -11679,7 +11769,7 @@
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -11706,7 +11796,7 @@
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -11733,7 +11823,7 @@
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -11760,7 +11850,7 @@
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -11787,7 +11877,7 @@
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -11814,7 +11904,7 @@
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -11841,7 +11931,7 @@
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -11868,7 +11958,7 @@
       <c r="X421" s="3"/>
       <c r="Y421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -11895,7 +11985,7 @@
       <c r="X422" s="3"/>
       <c r="Y422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -11922,7 +12012,7 @@
       <c r="X423" s="3"/>
       <c r="Y423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -11949,7 +12039,7 @@
       <c r="X424" s="3"/>
       <c r="Y424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -11976,7 +12066,7 @@
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -12003,7 +12093,7 @@
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -12030,7 +12120,7 @@
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -12057,7 +12147,7 @@
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -12084,7 +12174,7 @@
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -12111,7 +12201,7 @@
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -12138,7 +12228,7 @@
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -12165,7 +12255,7 @@
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -12192,7 +12282,7 @@
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -12219,7 +12309,7 @@
       <c r="X434" s="3"/>
       <c r="Y434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -12246,7 +12336,7 @@
       <c r="X435" s="3"/>
       <c r="Y435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -12273,7 +12363,7 @@
       <c r="X436" s="3"/>
       <c r="Y436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -12300,7 +12390,7 @@
       <c r="X437" s="3"/>
       <c r="Y437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -12327,7 +12417,7 @@
       <c r="X438" s="3"/>
       <c r="Y438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -12354,7 +12444,7 @@
       <c r="X439" s="3"/>
       <c r="Y439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -12381,7 +12471,7 @@
       <c r="X440" s="3"/>
       <c r="Y440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -12408,7 +12498,7 @@
       <c r="X441" s="3"/>
       <c r="Y441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -12435,7 +12525,7 @@
       <c r="X442" s="3"/>
       <c r="Y442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -12462,7 +12552,7 @@
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -12489,7 +12579,7 @@
       <c r="X444" s="3"/>
       <c r="Y444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -12516,7 +12606,7 @@
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -12543,7 +12633,7 @@
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -12570,7 +12660,7 @@
       <c r="X447" s="3"/>
       <c r="Y447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -12597,7 +12687,7 @@
       <c r="X448" s="3"/>
       <c r="Y448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -12624,7 +12714,7 @@
       <c r="X449" s="3"/>
       <c r="Y449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -12651,7 +12741,7 @@
       <c r="X450" s="3"/>
       <c r="Y450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -12678,7 +12768,7 @@
       <c r="X451" s="3"/>
       <c r="Y451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -12705,7 +12795,7 @@
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -12732,7 +12822,7 @@
       <c r="X453" s="3"/>
       <c r="Y453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -12759,7 +12849,7 @@
       <c r="X454" s="3"/>
       <c r="Y454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -12786,7 +12876,7 @@
       <c r="X455" s="3"/>
       <c r="Y455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -12813,7 +12903,7 @@
       <c r="X456" s="3"/>
       <c r="Y456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -12840,7 +12930,7 @@
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -12867,7 +12957,7 @@
       <c r="X458" s="3"/>
       <c r="Y458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -12894,7 +12984,7 @@
       <c r="X459" s="3"/>
       <c r="Y459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -12921,7 +13011,7 @@
       <c r="X460" s="3"/>
       <c r="Y460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -12948,7 +13038,7 @@
       <c r="X461" s="3"/>
       <c r="Y461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -12975,7 +13065,7 @@
       <c r="X462" s="3"/>
       <c r="Y462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -13002,7 +13092,7 @@
       <c r="X463" s="3"/>
       <c r="Y463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -13029,7 +13119,7 @@
       <c r="X464" s="3"/>
       <c r="Y464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -13056,7 +13146,7 @@
       <c r="X465" s="3"/>
       <c r="Y465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -13083,7 +13173,7 @@
       <c r="X466" s="3"/>
       <c r="Y466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -13110,7 +13200,7 @@
       <c r="X467" s="3"/>
       <c r="Y467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -13137,7 +13227,7 @@
       <c r="X468" s="3"/>
       <c r="Y468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" s="8"/>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -13164,7 +13254,7 @@
       <c r="X469" s="3"/>
       <c r="Y469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -13191,7 +13281,7 @@
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -13218,7 +13308,7 @@
       <c r="X471" s="3"/>
       <c r="Y471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -13245,7 +13335,7 @@
       <c r="X472" s="3"/>
       <c r="Y472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -13272,7 +13362,7 @@
       <c r="X473" s="3"/>
       <c r="Y473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -13299,7 +13389,7 @@
       <c r="X474" s="3"/>
       <c r="Y474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -13326,7 +13416,7 @@
       <c r="X475" s="3"/>
       <c r="Y475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -13353,7 +13443,7 @@
       <c r="X476" s="3"/>
       <c r="Y476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -13380,7 +13470,7 @@
       <c r="X477" s="3"/>
       <c r="Y477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -13407,7 +13497,7 @@
       <c r="X478" s="3"/>
       <c r="Y478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -13434,7 +13524,7 @@
       <c r="X479" s="3"/>
       <c r="Y479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -13461,7 +13551,7 @@
       <c r="X480" s="3"/>
       <c r="Y480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -13488,7 +13578,7 @@
       <c r="X481" s="3"/>
       <c r="Y481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -13515,7 +13605,7 @@
       <c r="X482" s="3"/>
       <c r="Y482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" s="8"/>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -13542,7 +13632,7 @@
       <c r="X483" s="3"/>
       <c r="Y483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" s="8"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -13569,7 +13659,7 @@
       <c r="X484" s="3"/>
       <c r="Y484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" s="8"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -13596,7 +13686,7 @@
       <c r="X485" s="3"/>
       <c r="Y485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -13623,7 +13713,7 @@
       <c r="X486" s="3"/>
       <c r="Y486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -13650,7 +13740,7 @@
       <c r="X487" s="3"/>
       <c r="Y487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -13677,7 +13767,7 @@
       <c r="X488" s="3"/>
       <c r="Y488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -13704,7 +13794,7 @@
       <c r="X489" s="3"/>
       <c r="Y489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -13731,7 +13821,7 @@
       <c r="X490" s="3"/>
       <c r="Y490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -13758,7 +13848,7 @@
       <c r="X491" s="3"/>
       <c r="Y491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -13785,7 +13875,7 @@
       <c r="X492" s="3"/>
       <c r="Y492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493" s="8"/>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -13812,7 +13902,7 @@
       <c r="X493" s="3"/>
       <c r="Y493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494" s="8"/>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -13839,7 +13929,7 @@
       <c r="X494" s="3"/>
       <c r="Y494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -13866,7 +13956,7 @@
       <c r="X495" s="3"/>
       <c r="Y495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -13893,7 +13983,7 @@
       <c r="X496" s="3"/>
       <c r="Y496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -13920,7 +14010,7 @@
       <c r="X497" s="3"/>
       <c r="Y497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -13947,7 +14037,7 @@
       <c r="X498" s="3"/>
       <c r="Y498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -13974,7 +14064,7 @@
       <c r="X499" s="3"/>
       <c r="Y499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -14001,7 +14091,7 @@
       <c r="X500" s="3"/>
       <c r="Y500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -14028,7 +14118,7 @@
       <c r="X501" s="3"/>
       <c r="Y501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -14055,7 +14145,7 @@
       <c r="X502" s="3"/>
       <c r="Y502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -14082,7 +14172,7 @@
       <c r="X503" s="3"/>
       <c r="Y503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -14109,7 +14199,7 @@
       <c r="X504" s="3"/>
       <c r="Y504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -14136,7 +14226,7 @@
       <c r="X505" s="3"/>
       <c r="Y505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -14163,7 +14253,7 @@
       <c r="X506" s="3"/>
       <c r="Y506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -14190,7 +14280,7 @@
       <c r="X507" s="3"/>
       <c r="Y507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A508" s="8"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -14217,7 +14307,7 @@
       <c r="X508" s="3"/>
       <c r="Y508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A509" s="8"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -14244,7 +14334,7 @@
       <c r="X509" s="3"/>
       <c r="Y509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A510" s="8"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -14271,7 +14361,7 @@
       <c r="X510" s="3"/>
       <c r="Y510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A511" s="8"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -14298,7 +14388,7 @@
       <c r="X511" s="3"/>
       <c r="Y511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -14325,7 +14415,7 @@
       <c r="X512" s="3"/>
       <c r="Y512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -14352,7 +14442,7 @@
       <c r="X513" s="3"/>
       <c r="Y513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -14379,7 +14469,7 @@
       <c r="X514" s="3"/>
       <c r="Y514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -14406,7 +14496,7 @@
       <c r="X515" s="3"/>
       <c r="Y515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -14433,7 +14523,7 @@
       <c r="X516" s="3"/>
       <c r="Y516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -14460,7 +14550,7 @@
       <c r="X517" s="3"/>
       <c r="Y517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -14487,7 +14577,7 @@
       <c r="X518" s="3"/>
       <c r="Y518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -14514,7 +14604,7 @@
       <c r="X519" s="3"/>
       <c r="Y519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -14541,7 +14631,7 @@
       <c r="X520" s="3"/>
       <c r="Y520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -14568,7 +14658,7 @@
       <c r="X521" s="3"/>
       <c r="Y521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -14595,7 +14685,7 @@
       <c r="X522" s="3"/>
       <c r="Y522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -14622,7 +14712,7 @@
       <c r="X523" s="3"/>
       <c r="Y523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -14649,7 +14739,7 @@
       <c r="X524" s="3"/>
       <c r="Y524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -14676,7 +14766,7 @@
       <c r="X525" s="3"/>
       <c r="Y525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -14703,7 +14793,7 @@
       <c r="X526" s="3"/>
       <c r="Y526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -14730,7 +14820,7 @@
       <c r="X527" s="3"/>
       <c r="Y527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -14757,7 +14847,7 @@
       <c r="X528" s="3"/>
       <c r="Y528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -14784,7 +14874,7 @@
       <c r="X529" s="3"/>
       <c r="Y529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -14811,7 +14901,7 @@
       <c r="X530" s="3"/>
       <c r="Y530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -14838,7 +14928,7 @@
       <c r="X531" s="3"/>
       <c r="Y531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -14865,7 +14955,7 @@
       <c r="X532" s="3"/>
       <c r="Y532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -14892,7 +14982,7 @@
       <c r="X533" s="3"/>
       <c r="Y533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -14919,7 +15009,7 @@
       <c r="X534" s="3"/>
       <c r="Y534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -14946,7 +15036,7 @@
       <c r="X535" s="3"/>
       <c r="Y535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -14973,7 +15063,7 @@
       <c r="X536" s="3"/>
       <c r="Y536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -15000,7 +15090,7 @@
       <c r="X537" s="3"/>
       <c r="Y537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -15027,7 +15117,7 @@
       <c r="X538" s="3"/>
       <c r="Y538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -15054,7 +15144,7 @@
       <c r="X539" s="3"/>
       <c r="Y539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -15081,7 +15171,7 @@
       <c r="X540" s="3"/>
       <c r="Y540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -15108,7 +15198,7 @@
       <c r="X541" s="3"/>
       <c r="Y541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -15135,7 +15225,7 @@
       <c r="X542" s="3"/>
       <c r="Y542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -15162,7 +15252,7 @@
       <c r="X543" s="3"/>
       <c r="Y543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -15189,7 +15279,7 @@
       <c r="X544" s="3"/>
       <c r="Y544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -15216,7 +15306,7 @@
       <c r="X545" s="3"/>
       <c r="Y545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -15243,7 +15333,7 @@
       <c r="X546" s="3"/>
       <c r="Y546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -15270,7 +15360,7 @@
       <c r="X547" s="3"/>
       <c r="Y547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -15297,7 +15387,7 @@
       <c r="X548" s="3"/>
       <c r="Y548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -15324,7 +15414,7 @@
       <c r="X549" s="3"/>
       <c r="Y549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -15351,7 +15441,7 @@
       <c r="X550" s="3"/>
       <c r="Y550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -15378,7 +15468,7 @@
       <c r="X551" s="3"/>
       <c r="Y551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -15405,7 +15495,7 @@
       <c r="X552" s="3"/>
       <c r="Y552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -15432,7 +15522,7 @@
       <c r="X553" s="3"/>
       <c r="Y553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -15459,7 +15549,7 @@
       <c r="X554" s="3"/>
       <c r="Y554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -15486,7 +15576,7 @@
       <c r="X555" s="3"/>
       <c r="Y555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -15513,7 +15603,7 @@
       <c r="X556" s="3"/>
       <c r="Y556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" s="8"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -15540,7 +15630,7 @@
       <c r="X557" s="3"/>
       <c r="Y557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" s="8"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -15567,7 +15657,7 @@
       <c r="X558" s="3"/>
       <c r="Y558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -15594,7 +15684,7 @@
       <c r="X559" s="3"/>
       <c r="Y559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -15621,7 +15711,7 @@
       <c r="X560" s="3"/>
       <c r="Y560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -15648,7 +15738,7 @@
       <c r="X561" s="3"/>
       <c r="Y561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -15675,7 +15765,7 @@
       <c r="X562" s="3"/>
       <c r="Y562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -15702,7 +15792,7 @@
       <c r="X563" s="3"/>
       <c r="Y563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A564" s="8"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -15729,7 +15819,7 @@
       <c r="X564" s="3"/>
       <c r="Y564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" s="8"/>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -15756,7 +15846,7 @@
       <c r="X565" s="3"/>
       <c r="Y565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A566" s="8"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -15783,7 +15873,7 @@
       <c r="X566" s="3"/>
       <c r="Y566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A567" s="8"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -15810,7 +15900,7 @@
       <c r="X567" s="3"/>
       <c r="Y567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A568" s="8"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -15837,7 +15927,7 @@
       <c r="X568" s="3"/>
       <c r="Y568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A569" s="8"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -15864,7 +15954,7 @@
       <c r="X569" s="3"/>
       <c r="Y569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A570" s="8"/>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -15891,7 +15981,7 @@
       <c r="X570" s="3"/>
       <c r="Y570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A571" s="8"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -15918,7 +16008,7 @@
       <c r="X571" s="3"/>
       <c r="Y571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" s="8"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -15945,7 +16035,7 @@
       <c r="X572" s="3"/>
       <c r="Y572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" s="8"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -15972,7 +16062,7 @@
       <c r="X573" s="3"/>
       <c r="Y573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" s="8"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -15999,7 +16089,7 @@
       <c r="X574" s="3"/>
       <c r="Y574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" s="8"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -16026,7 +16116,7 @@
       <c r="X575" s="3"/>
       <c r="Y575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" s="8"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -16053,7 +16143,7 @@
       <c r="X576" s="3"/>
       <c r="Y576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A577" s="8"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -16080,7 +16170,7 @@
       <c r="X577" s="3"/>
       <c r="Y577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A578" s="8"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -16107,7 +16197,7 @@
       <c r="X578" s="3"/>
       <c r="Y578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A579" s="8"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -16134,7 +16224,7 @@
       <c r="X579" s="3"/>
       <c r="Y579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A580" s="8"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -16161,7 +16251,7 @@
       <c r="X580" s="3"/>
       <c r="Y580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A581" s="8"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -16188,7 +16278,7 @@
       <c r="X581" s="3"/>
       <c r="Y581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A582" s="8"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -16215,7 +16305,7 @@
       <c r="X582" s="3"/>
       <c r="Y582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A583" s="8"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -16242,7 +16332,7 @@
       <c r="X583" s="3"/>
       <c r="Y583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" s="8"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -16269,7 +16359,7 @@
       <c r="X584" s="3"/>
       <c r="Y584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A585" s="8"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -16296,7 +16386,7 @@
       <c r="X585" s="3"/>
       <c r="Y585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A586" s="8"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -16323,7 +16413,7 @@
       <c r="X586" s="3"/>
       <c r="Y586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" s="8"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -16350,7 +16440,7 @@
       <c r="X587" s="3"/>
       <c r="Y587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" s="8"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -16377,7 +16467,7 @@
       <c r="X588" s="3"/>
       <c r="Y588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" s="8"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -16404,7 +16494,7 @@
       <c r="X589" s="3"/>
       <c r="Y589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" s="8"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -16431,7 +16521,7 @@
       <c r="X590" s="3"/>
       <c r="Y590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" s="8"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -16458,7 +16548,7 @@
       <c r="X591" s="3"/>
       <c r="Y591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -16485,7 +16575,7 @@
       <c r="X592" s="3"/>
       <c r="Y592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A593" s="8"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -16512,7 +16602,7 @@
       <c r="X593" s="3"/>
       <c r="Y593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A594" s="8"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -16539,7 +16629,7 @@
       <c r="X594" s="3"/>
       <c r="Y594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A595" s="8"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -16566,7 +16656,7 @@
       <c r="X595" s="3"/>
       <c r="Y595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A596" s="8"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -16593,7 +16683,7 @@
       <c r="X596" s="3"/>
       <c r="Y596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A597" s="8"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -16620,7 +16710,7 @@
       <c r="X597" s="3"/>
       <c r="Y597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A598" s="8"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -16647,7 +16737,7 @@
       <c r="X598" s="3"/>
       <c r="Y598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A599" s="8"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -16674,7 +16764,7 @@
       <c r="X599" s="3"/>
       <c r="Y599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A600" s="8"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -16701,7 +16791,7 @@
       <c r="X600" s="3"/>
       <c r="Y600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A601" s="8"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -16728,7 +16818,7 @@
       <c r="X601" s="3"/>
       <c r="Y601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" s="8"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -16755,7 +16845,7 @@
       <c r="X602" s="3"/>
       <c r="Y602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" s="8"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -16782,7 +16872,7 @@
       <c r="X603" s="3"/>
       <c r="Y603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" s="8"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -16809,7 +16899,7 @@
       <c r="X604" s="3"/>
       <c r="Y604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" s="8"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -16836,7 +16926,7 @@
       <c r="X605" s="3"/>
       <c r="Y605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" s="8"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -16863,7 +16953,7 @@
       <c r="X606" s="3"/>
       <c r="Y606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A607" s="8"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -16890,7 +16980,7 @@
       <c r="X607" s="3"/>
       <c r="Y607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A608" s="8"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -16917,7 +17007,7 @@
       <c r="X608" s="3"/>
       <c r="Y608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A609" s="8"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -16944,7 +17034,7 @@
       <c r="X609" s="3"/>
       <c r="Y609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A610" s="8"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -16971,7 +17061,7 @@
       <c r="X610" s="3"/>
       <c r="Y610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -16998,7 +17088,7 @@
       <c r="X611" s="3"/>
       <c r="Y611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A612" s="8"/>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -17025,7 +17115,7 @@
       <c r="X612" s="3"/>
       <c r="Y612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" s="8"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -17052,7 +17142,7 @@
       <c r="X613" s="3"/>
       <c r="Y613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A614" s="8"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -17079,7 +17169,7 @@
       <c r="X614" s="3"/>
       <c r="Y614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A615" s="8"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -17106,7 +17196,7 @@
       <c r="X615" s="3"/>
       <c r="Y615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A616" s="8"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -17133,7 +17223,7 @@
       <c r="X616" s="3"/>
       <c r="Y616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" s="8"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -17160,7 +17250,7 @@
       <c r="X617" s="3"/>
       <c r="Y617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -17187,7 +17277,7 @@
       <c r="X618" s="3"/>
       <c r="Y618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" s="8"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -17214,7 +17304,7 @@
       <c r="X619" s="3"/>
       <c r="Y619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" s="8"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -17241,7 +17331,7 @@
       <c r="X620" s="3"/>
       <c r="Y620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" s="8"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -17268,7 +17358,7 @@
       <c r="X621" s="3"/>
       <c r="Y621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A622" s="8"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -17295,7 +17385,7 @@
       <c r="X622" s="3"/>
       <c r="Y622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A623" s="8"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -17322,7 +17412,7 @@
       <c r="X623" s="3"/>
       <c r="Y623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A624" s="8"/>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -17349,7 +17439,7 @@
       <c r="X624" s="3"/>
       <c r="Y624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A625" s="8"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -17376,7 +17466,7 @@
       <c r="X625" s="3"/>
       <c r="Y625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A626" s="8"/>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -17403,7 +17493,7 @@
       <c r="X626" s="3"/>
       <c r="Y626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A627" s="8"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -17430,7 +17520,7 @@
       <c r="X627" s="3"/>
       <c r="Y627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A628" s="8"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -17457,7 +17547,7 @@
       <c r="X628" s="3"/>
       <c r="Y628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A629" s="8"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -17484,7 +17574,7 @@
       <c r="X629" s="3"/>
       <c r="Y629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A630" s="8"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -17511,7 +17601,7 @@
       <c r="X630" s="3"/>
       <c r="Y630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -17538,7 +17628,7 @@
       <c r="X631" s="3"/>
       <c r="Y631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A632" s="8"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -17565,7 +17655,7 @@
       <c r="X632" s="3"/>
       <c r="Y632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A633" s="8"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -17592,7 +17682,7 @@
       <c r="X633" s="3"/>
       <c r="Y633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A634" s="8"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -17619,7 +17709,7 @@
       <c r="X634" s="3"/>
       <c r="Y634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A635" s="8"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -17646,7 +17736,7 @@
       <c r="X635" s="3"/>
       <c r="Y635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A636" s="8"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -17673,7 +17763,7 @@
       <c r="X636" s="3"/>
       <c r="Y636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A637" s="8"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -17700,7 +17790,7 @@
       <c r="X637" s="3"/>
       <c r="Y637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A638" s="8"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -17727,7 +17817,7 @@
       <c r="X638" s="3"/>
       <c r="Y638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A639" s="8"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -17754,7 +17844,7 @@
       <c r="X639" s="3"/>
       <c r="Y639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A640" s="8"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -17781,7 +17871,7 @@
       <c r="X640" s="3"/>
       <c r="Y640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A641" s="8"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -17808,7 +17898,7 @@
       <c r="X641" s="3"/>
       <c r="Y641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A642" s="8"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -17835,7 +17925,7 @@
       <c r="X642" s="3"/>
       <c r="Y642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A643" s="8"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -17862,7 +17952,7 @@
       <c r="X643" s="3"/>
       <c r="Y643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A644" s="8"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -17889,7 +17979,7 @@
       <c r="X644" s="3"/>
       <c r="Y644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A645" s="8"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -17916,7 +18006,7 @@
       <c r="X645" s="3"/>
       <c r="Y645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A646" s="8"/>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -17943,7 +18033,7 @@
       <c r="X646" s="3"/>
       <c r="Y646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A647" s="8"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -17970,7 +18060,7 @@
       <c r="X647" s="3"/>
       <c r="Y647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A648" s="8"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -17997,7 +18087,7 @@
       <c r="X648" s="3"/>
       <c r="Y648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A649" s="8"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -18024,7 +18114,7 @@
       <c r="X649" s="3"/>
       <c r="Y649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A650" s="8"/>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -18051,7 +18141,7 @@
       <c r="X650" s="3"/>
       <c r="Y650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A651" s="8"/>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -18078,7 +18168,7 @@
       <c r="X651" s="3"/>
       <c r="Y651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A652" s="8"/>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -18105,7 +18195,7 @@
       <c r="X652" s="3"/>
       <c r="Y652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A653" s="8"/>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -18132,7 +18222,7 @@
       <c r="X653" s="3"/>
       <c r="Y653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A654" s="8"/>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -18159,7 +18249,7 @@
       <c r="X654" s="3"/>
       <c r="Y654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A655" s="8"/>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -18186,7 +18276,7 @@
       <c r="X655" s="3"/>
       <c r="Y655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A656" s="8"/>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -18213,7 +18303,7 @@
       <c r="X656" s="3"/>
       <c r="Y656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A657" s="8"/>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -18240,7 +18330,7 @@
       <c r="X657" s="3"/>
       <c r="Y657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A658" s="8"/>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -18267,7 +18357,7 @@
       <c r="X658" s="3"/>
       <c r="Y658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A659" s="8"/>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -18294,7 +18384,7 @@
       <c r="X659" s="3"/>
       <c r="Y659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A660" s="8"/>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -18321,7 +18411,7 @@
       <c r="X660" s="3"/>
       <c r="Y660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A661" s="8"/>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -18348,7 +18438,7 @@
       <c r="X661" s="3"/>
       <c r="Y661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A662" s="8"/>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -18375,7 +18465,7 @@
       <c r="X662" s="3"/>
       <c r="Y662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A663" s="8"/>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -18402,7 +18492,7 @@
       <c r="X663" s="3"/>
       <c r="Y663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A664" s="8"/>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -18429,7 +18519,7 @@
       <c r="X664" s="3"/>
       <c r="Y664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A665" s="8"/>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -18456,7 +18546,7 @@
       <c r="X665" s="3"/>
       <c r="Y665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A666" s="8"/>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -18483,7 +18573,7 @@
       <c r="X666" s="3"/>
       <c r="Y666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A667" s="8"/>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -18510,7 +18600,7 @@
       <c r="X667" s="3"/>
       <c r="Y667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A668" s="8"/>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -18537,7 +18627,7 @@
       <c r="X668" s="3"/>
       <c r="Y668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A669" s="8"/>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -18564,7 +18654,7 @@
       <c r="X669" s="3"/>
       <c r="Y669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A670" s="8"/>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -18591,7 +18681,7 @@
       <c r="X670" s="3"/>
       <c r="Y670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A671" s="8"/>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -18618,7 +18708,7 @@
       <c r="X671" s="3"/>
       <c r="Y671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A672" s="8"/>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -18645,7 +18735,7 @@
       <c r="X672" s="3"/>
       <c r="Y672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A673" s="8"/>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -18672,7 +18762,7 @@
       <c r="X673" s="3"/>
       <c r="Y673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A674" s="8"/>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -18699,7 +18789,7 @@
       <c r="X674" s="3"/>
       <c r="Y674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A675" s="8"/>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -18726,7 +18816,7 @@
       <c r="X675" s="3"/>
       <c r="Y675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A676" s="8"/>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -18753,7 +18843,7 @@
       <c r="X676" s="3"/>
       <c r="Y676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A677" s="8"/>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -18780,7 +18870,7 @@
       <c r="X677" s="3"/>
       <c r="Y677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A678" s="8"/>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -18807,7 +18897,7 @@
       <c r="X678" s="3"/>
       <c r="Y678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A679" s="8"/>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -18834,7 +18924,7 @@
       <c r="X679" s="3"/>
       <c r="Y679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A680" s="8"/>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -18861,7 +18951,7 @@
       <c r="X680" s="3"/>
       <c r="Y680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A681" s="8"/>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -18888,7 +18978,7 @@
       <c r="X681" s="3"/>
       <c r="Y681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A682" s="8"/>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -18915,7 +19005,7 @@
       <c r="X682" s="3"/>
       <c r="Y682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A683" s="8"/>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -18942,7 +19032,7 @@
       <c r="X683" s="3"/>
       <c r="Y683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A684" s="8"/>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -18969,7 +19059,7 @@
       <c r="X684" s="3"/>
       <c r="Y684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A685" s="8"/>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -18996,7 +19086,7 @@
       <c r="X685" s="3"/>
       <c r="Y685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A686" s="8"/>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -19023,7 +19113,7 @@
       <c r="X686" s="3"/>
       <c r="Y686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A687" s="8"/>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -19050,7 +19140,7 @@
       <c r="X687" s="3"/>
       <c r="Y687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A688" s="8"/>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -19077,7 +19167,7 @@
       <c r="X688" s="3"/>
       <c r="Y688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A689" s="8"/>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -19104,7 +19194,7 @@
       <c r="X689" s="3"/>
       <c r="Y689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A690" s="8"/>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -19131,7 +19221,7 @@
       <c r="X690" s="3"/>
       <c r="Y690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A691" s="8"/>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -19158,7 +19248,7 @@
       <c r="X691" s="3"/>
       <c r="Y691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A692" s="8"/>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -19185,7 +19275,7 @@
       <c r="X692" s="3"/>
       <c r="Y692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A693" s="8"/>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -19212,7 +19302,7 @@
       <c r="X693" s="3"/>
       <c r="Y693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A694" s="8"/>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -19239,7 +19329,7 @@
       <c r="X694" s="3"/>
       <c r="Y694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A695" s="8"/>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -19266,7 +19356,7 @@
       <c r="X695" s="3"/>
       <c r="Y695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A696" s="8"/>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -19293,7 +19383,7 @@
       <c r="X696" s="3"/>
       <c r="Y696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A697" s="8"/>
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
@@ -19320,7 +19410,7 @@
       <c r="X697" s="3"/>
       <c r="Y697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A698" s="8"/>
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
@@ -19347,7 +19437,7 @@
       <c r="X698" s="3"/>
       <c r="Y698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A699" s="8"/>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
@@ -19374,7 +19464,7 @@
       <c r="X699" s="3"/>
       <c r="Y699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A700" s="8"/>
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
@@ -19401,7 +19491,7 @@
       <c r="X700" s="3"/>
       <c r="Y700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A701" s="8"/>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -19428,7 +19518,7 @@
       <c r="X701" s="3"/>
       <c r="Y701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A702" s="8"/>
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
@@ -19455,7 +19545,7 @@
       <c r="X702" s="3"/>
       <c r="Y702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A703" s="8"/>
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
@@ -19482,7 +19572,7 @@
       <c r="X703" s="3"/>
       <c r="Y703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A704" s="8"/>
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
@@ -19509,7 +19599,7 @@
       <c r="X704" s="3"/>
       <c r="Y704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A705" s="8"/>
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
@@ -19536,7 +19626,7 @@
       <c r="X705" s="3"/>
       <c r="Y705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A706" s="8"/>
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
@@ -19563,7 +19653,7 @@
       <c r="X706" s="3"/>
       <c r="Y706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A707" s="8"/>
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
@@ -19590,7 +19680,7 @@
       <c r="X707" s="3"/>
       <c r="Y707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A708" s="8"/>
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
@@ -19617,7 +19707,7 @@
       <c r="X708" s="3"/>
       <c r="Y708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A709" s="8"/>
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
@@ -19644,7 +19734,7 @@
       <c r="X709" s="3"/>
       <c r="Y709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A710" s="8"/>
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
@@ -19671,7 +19761,7 @@
       <c r="X710" s="3"/>
       <c r="Y710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A711" s="8"/>
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
@@ -19698,7 +19788,7 @@
       <c r="X711" s="3"/>
       <c r="Y711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A712" s="8"/>
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
@@ -19725,7 +19815,7 @@
       <c r="X712" s="3"/>
       <c r="Y712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A713" s="8"/>
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
@@ -19752,7 +19842,7 @@
       <c r="X713" s="3"/>
       <c r="Y713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A714" s="8"/>
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
@@ -19779,7 +19869,7 @@
       <c r="X714" s="3"/>
       <c r="Y714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A715" s="8"/>
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
@@ -19806,7 +19896,7 @@
       <c r="X715" s="3"/>
       <c r="Y715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A716" s="8"/>
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
@@ -19833,7 +19923,7 @@
       <c r="X716" s="3"/>
       <c r="Y716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A717" s="8"/>
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
@@ -19860,7 +19950,7 @@
       <c r="X717" s="3"/>
       <c r="Y717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A718" s="8"/>
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
@@ -19887,7 +19977,7 @@
       <c r="X718" s="3"/>
       <c r="Y718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A719" s="8"/>
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
@@ -19914,7 +20004,7 @@
       <c r="X719" s="3"/>
       <c r="Y719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A720" s="8"/>
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
@@ -19941,7 +20031,7 @@
       <c r="X720" s="3"/>
       <c r="Y720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A721" s="8"/>
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
@@ -19968,7 +20058,7 @@
       <c r="X721" s="3"/>
       <c r="Y721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A722" s="8"/>
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
@@ -19995,7 +20085,7 @@
       <c r="X722" s="3"/>
       <c r="Y722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A723" s="8"/>
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
@@ -20022,7 +20112,7 @@
       <c r="X723" s="3"/>
       <c r="Y723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A724" s="8"/>
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
@@ -20049,7 +20139,7 @@
       <c r="X724" s="3"/>
       <c r="Y724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A725" s="8"/>
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
@@ -20076,7 +20166,7 @@
       <c r="X725" s="3"/>
       <c r="Y725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A726" s="8"/>
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
@@ -20103,7 +20193,7 @@
       <c r="X726" s="3"/>
       <c r="Y726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A727" s="8"/>
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
@@ -20130,7 +20220,7 @@
       <c r="X727" s="3"/>
       <c r="Y727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A728" s="8"/>
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
@@ -20157,7 +20247,7 @@
       <c r="X728" s="3"/>
       <c r="Y728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A729" s="8"/>
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
@@ -20184,7 +20274,7 @@
       <c r="X729" s="3"/>
       <c r="Y729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A730" s="8"/>
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
@@ -20211,7 +20301,7 @@
       <c r="X730" s="3"/>
       <c r="Y730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A731" s="8"/>
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
@@ -20238,7 +20328,7 @@
       <c r="X731" s="3"/>
       <c r="Y731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A732" s="8"/>
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
@@ -20265,7 +20355,7 @@
       <c r="X732" s="3"/>
       <c r="Y732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A733" s="8"/>
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
@@ -20292,7 +20382,7 @@
       <c r="X733" s="3"/>
       <c r="Y733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A734" s="8"/>
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
@@ -20319,7 +20409,7 @@
       <c r="X734" s="3"/>
       <c r="Y734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A735" s="8"/>
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
@@ -20346,7 +20436,7 @@
       <c r="X735" s="3"/>
       <c r="Y735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A736" s="8"/>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -20373,7 +20463,7 @@
       <c r="X736" s="3"/>
       <c r="Y736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A737" s="8"/>
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
@@ -20400,7 +20490,7 @@
       <c r="X737" s="3"/>
       <c r="Y737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A738" s="8"/>
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
@@ -20427,7 +20517,7 @@
       <c r="X738" s="3"/>
       <c r="Y738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A739" s="8"/>
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
@@ -20454,7 +20544,7 @@
       <c r="X739" s="3"/>
       <c r="Y739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A740" s="8"/>
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
@@ -20481,7 +20571,7 @@
       <c r="X740" s="3"/>
       <c r="Y740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A741" s="8"/>
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
@@ -20508,7 +20598,7 @@
       <c r="X741" s="3"/>
       <c r="Y741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A742" s="8"/>
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
@@ -20535,7 +20625,7 @@
       <c r="X742" s="3"/>
       <c r="Y742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A743" s="8"/>
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
@@ -20562,7 +20652,7 @@
       <c r="X743" s="3"/>
       <c r="Y743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A744" s="8"/>
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
@@ -20589,7 +20679,7 @@
       <c r="X744" s="3"/>
       <c r="Y744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A745" s="8"/>
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
@@ -20616,7 +20706,7 @@
       <c r="X745" s="3"/>
       <c r="Y745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A746" s="8"/>
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
@@ -20643,7 +20733,7 @@
       <c r="X746" s="3"/>
       <c r="Y746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A747" s="8"/>
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
@@ -20670,7 +20760,7 @@
       <c r="X747" s="3"/>
       <c r="Y747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A748" s="8"/>
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
@@ -20697,7 +20787,7 @@
       <c r="X748" s="3"/>
       <c r="Y748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A749" s="8"/>
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
@@ -20724,7 +20814,7 @@
       <c r="X749" s="3"/>
       <c r="Y749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A750" s="8"/>
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
@@ -20751,7 +20841,7 @@
       <c r="X750" s="3"/>
       <c r="Y750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A751" s="8"/>
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
@@ -20778,7 +20868,7 @@
       <c r="X751" s="3"/>
       <c r="Y751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A752" s="8"/>
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
@@ -20805,7 +20895,7 @@
       <c r="X752" s="3"/>
       <c r="Y752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A753" s="8"/>
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
@@ -20832,7 +20922,7 @@
       <c r="X753" s="3"/>
       <c r="Y753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A754" s="8"/>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -20859,7 +20949,7 @@
       <c r="X754" s="3"/>
       <c r="Y754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A755" s="8"/>
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
@@ -20886,7 +20976,7 @@
       <c r="X755" s="3"/>
       <c r="Y755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A756" s="8"/>
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
@@ -20913,7 +21003,7 @@
       <c r="X756" s="3"/>
       <c r="Y756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A757" s="8"/>
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
@@ -20940,7 +21030,7 @@
       <c r="X757" s="3"/>
       <c r="Y757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A758" s="8"/>
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
@@ -20967,7 +21057,7 @@
       <c r="X758" s="3"/>
       <c r="Y758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A759" s="8"/>
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
@@ -20994,7 +21084,7 @@
       <c r="X759" s="3"/>
       <c r="Y759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A760" s="8"/>
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
@@ -21021,7 +21111,7 @@
       <c r="X760" s="3"/>
       <c r="Y760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A761" s="8"/>
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
@@ -21048,7 +21138,7 @@
       <c r="X761" s="3"/>
       <c r="Y761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A762" s="8"/>
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
@@ -21075,7 +21165,7 @@
       <c r="X762" s="3"/>
       <c r="Y762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A763" s="8"/>
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
@@ -21102,7 +21192,7 @@
       <c r="X763" s="3"/>
       <c r="Y763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A764" s="8"/>
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
@@ -21129,7 +21219,7 @@
       <c r="X764" s="3"/>
       <c r="Y764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A765" s="8"/>
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
@@ -21156,7 +21246,7 @@
       <c r="X765" s="3"/>
       <c r="Y765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A766" s="8"/>
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
@@ -21183,7 +21273,7 @@
       <c r="X766" s="3"/>
       <c r="Y766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A767" s="8"/>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -21210,7 +21300,7 @@
       <c r="X767" s="3"/>
       <c r="Y767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A768" s="8"/>
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
@@ -21237,7 +21327,7 @@
       <c r="X768" s="3"/>
       <c r="Y768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A769" s="8"/>
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
@@ -21264,7 +21354,7 @@
       <c r="X769" s="3"/>
       <c r="Y769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A770" s="8"/>
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
@@ -21291,7 +21381,7 @@
       <c r="X770" s="3"/>
       <c r="Y770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A771" s="8"/>
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
@@ -21318,7 +21408,7 @@
       <c r="X771" s="3"/>
       <c r="Y771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A772" s="8"/>
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
@@ -21345,7 +21435,7 @@
       <c r="X772" s="3"/>
       <c r="Y772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A773" s="8"/>
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
@@ -21372,7 +21462,7 @@
       <c r="X773" s="3"/>
       <c r="Y773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A774" s="8"/>
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
@@ -21399,7 +21489,7 @@
       <c r="X774" s="3"/>
       <c r="Y774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A775" s="8"/>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -21426,7 +21516,7 @@
       <c r="X775" s="3"/>
       <c r="Y775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A776" s="8"/>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
@@ -21453,7 +21543,7 @@
       <c r="X776" s="3"/>
       <c r="Y776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A777" s="8"/>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
@@ -21480,7 +21570,7 @@
       <c r="X777" s="3"/>
       <c r="Y777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A778" s="8"/>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
@@ -21507,7 +21597,7 @@
       <c r="X778" s="3"/>
       <c r="Y778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A779" s="8"/>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -21534,7 +21624,7 @@
       <c r="X779" s="3"/>
       <c r="Y779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A780" s="8"/>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -21561,7 +21651,7 @@
       <c r="X780" s="3"/>
       <c r="Y780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A781" s="8"/>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
@@ -21588,7 +21678,7 @@
       <c r="X781" s="3"/>
       <c r="Y781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A782" s="8"/>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
@@ -21615,7 +21705,7 @@
       <c r="X782" s="3"/>
       <c r="Y782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A783" s="8"/>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -21642,7 +21732,7 @@
       <c r="X783" s="3"/>
       <c r="Y783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A784" s="8"/>
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
@@ -21669,7 +21759,7 @@
       <c r="X784" s="3"/>
       <c r="Y784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A785" s="8"/>
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
@@ -21696,7 +21786,7 @@
       <c r="X785" s="3"/>
       <c r="Y785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A786" s="8"/>
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
@@ -21723,7 +21813,7 @@
       <c r="X786" s="3"/>
       <c r="Y786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A787" s="8"/>
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
@@ -21750,7 +21840,7 @@
       <c r="X787" s="3"/>
       <c r="Y787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A788" s="8"/>
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
@@ -21777,7 +21867,7 @@
       <c r="X788" s="3"/>
       <c r="Y788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A789" s="8"/>
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
@@ -21804,7 +21894,7 @@
       <c r="X789" s="3"/>
       <c r="Y789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A790" s="8"/>
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
@@ -21831,7 +21921,7 @@
       <c r="X790" s="3"/>
       <c r="Y790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A791" s="8"/>
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
@@ -21858,7 +21948,7 @@
       <c r="X791" s="3"/>
       <c r="Y791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A792" s="8"/>
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
@@ -21885,7 +21975,7 @@
       <c r="X792" s="3"/>
       <c r="Y792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A793" s="8"/>
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
@@ -21912,7 +22002,7 @@
       <c r="X793" s="3"/>
       <c r="Y793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A794" s="8"/>
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
@@ -21939,7 +22029,7 @@
       <c r="X794" s="3"/>
       <c r="Y794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A795" s="8"/>
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
@@ -21966,7 +22056,7 @@
       <c r="X795" s="3"/>
       <c r="Y795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A796" s="8"/>
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
@@ -21993,7 +22083,7 @@
       <c r="X796" s="3"/>
       <c r="Y796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A797" s="8"/>
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
@@ -22020,7 +22110,7 @@
       <c r="X797" s="3"/>
       <c r="Y797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A798" s="8"/>
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
@@ -22047,7 +22137,7 @@
       <c r="X798" s="3"/>
       <c r="Y798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A799" s="8"/>
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
@@ -22074,7 +22164,7 @@
       <c r="X799" s="3"/>
       <c r="Y799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A800" s="8"/>
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
@@ -22101,7 +22191,7 @@
       <c r="X800" s="3"/>
       <c r="Y800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A801" s="8"/>
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
@@ -22128,7 +22218,7 @@
       <c r="X801" s="3"/>
       <c r="Y801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A802" s="8"/>
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
@@ -22155,7 +22245,7 @@
       <c r="X802" s="3"/>
       <c r="Y802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A803" s="8"/>
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
@@ -22182,7 +22272,7 @@
       <c r="X803" s="3"/>
       <c r="Y803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A804" s="8"/>
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
@@ -22209,7 +22299,7 @@
       <c r="X804" s="3"/>
       <c r="Y804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A805" s="8"/>
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
@@ -22236,7 +22326,7 @@
       <c r="X805" s="3"/>
       <c r="Y805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A806" s="8"/>
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
@@ -22263,7 +22353,7 @@
       <c r="X806" s="3"/>
       <c r="Y806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A807" s="8"/>
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
@@ -22290,7 +22380,7 @@
       <c r="X807" s="3"/>
       <c r="Y807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A808" s="8"/>
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
@@ -22317,7 +22407,7 @@
       <c r="X808" s="3"/>
       <c r="Y808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A809" s="8"/>
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
@@ -22344,7 +22434,7 @@
       <c r="X809" s="3"/>
       <c r="Y809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A810" s="8"/>
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
@@ -22371,7 +22461,7 @@
       <c r="X810" s="3"/>
       <c r="Y810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A811" s="8"/>
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
@@ -22398,7 +22488,7 @@
       <c r="X811" s="3"/>
       <c r="Y811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A812" s="8"/>
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
@@ -22425,7 +22515,7 @@
       <c r="X812" s="3"/>
       <c r="Y812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A813" s="8"/>
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
@@ -22452,7 +22542,7 @@
       <c r="X813" s="3"/>
       <c r="Y813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A814" s="8"/>
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
@@ -22479,7 +22569,7 @@
       <c r="X814" s="3"/>
       <c r="Y814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A815" s="8"/>
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
@@ -22506,7 +22596,7 @@
       <c r="X815" s="3"/>
       <c r="Y815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A816" s="8"/>
       <c r="B816" s="8"/>
       <c r="C816" s="8"/>
@@ -22533,7 +22623,7 @@
       <c r="X816" s="3"/>
       <c r="Y816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A817" s="8"/>
       <c r="B817" s="8"/>
       <c r="C817" s="8"/>
@@ -22560,7 +22650,7 @@
       <c r="X817" s="3"/>
       <c r="Y817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A818" s="8"/>
       <c r="B818" s="8"/>
       <c r="C818" s="8"/>
@@ -22587,7 +22677,7 @@
       <c r="X818" s="3"/>
       <c r="Y818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A819" s="8"/>
       <c r="B819" s="8"/>
       <c r="C819" s="8"/>
@@ -22614,7 +22704,7 @@
       <c r="X819" s="3"/>
       <c r="Y819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A820" s="8"/>
       <c r="B820" s="8"/>
       <c r="C820" s="8"/>
@@ -22641,7 +22731,7 @@
       <c r="X820" s="3"/>
       <c r="Y820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A821" s="8"/>
       <c r="B821" s="8"/>
       <c r="C821" s="8"/>
@@ -22668,7 +22758,7 @@
       <c r="X821" s="3"/>
       <c r="Y821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A822" s="8"/>
       <c r="B822" s="8"/>
       <c r="C822" s="8"/>
@@ -22695,7 +22785,7 @@
       <c r="X822" s="3"/>
       <c r="Y822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A823" s="8"/>
       <c r="B823" s="8"/>
       <c r="C823" s="8"/>
@@ -22722,7 +22812,7 @@
       <c r="X823" s="3"/>
       <c r="Y823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A824" s="8"/>
       <c r="B824" s="8"/>
       <c r="C824" s="8"/>
@@ -22749,7 +22839,7 @@
       <c r="X824" s="3"/>
       <c r="Y824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A825" s="8"/>
       <c r="B825" s="8"/>
       <c r="C825" s="8"/>
@@ -22776,7 +22866,7 @@
       <c r="X825" s="3"/>
       <c r="Y825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A826" s="8"/>
       <c r="B826" s="8"/>
       <c r="C826" s="8"/>
@@ -22803,7 +22893,7 @@
       <c r="X826" s="3"/>
       <c r="Y826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A827" s="8"/>
       <c r="B827" s="8"/>
       <c r="C827" s="8"/>
@@ -22830,7 +22920,7 @@
       <c r="X827" s="3"/>
       <c r="Y827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A828" s="8"/>
       <c r="B828" s="8"/>
       <c r="C828" s="8"/>
@@ -22857,7 +22947,7 @@
       <c r="X828" s="3"/>
       <c r="Y828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A829" s="8"/>
       <c r="B829" s="8"/>
       <c r="C829" s="8"/>
@@ -22884,7 +22974,7 @@
       <c r="X829" s="3"/>
       <c r="Y829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A830" s="8"/>
       <c r="B830" s="8"/>
       <c r="C830" s="8"/>
@@ -22911,7 +23001,7 @@
       <c r="X830" s="3"/>
       <c r="Y830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A831" s="8"/>
       <c r="B831" s="8"/>
       <c r="C831" s="8"/>
@@ -22938,7 +23028,7 @@
       <c r="X831" s="3"/>
       <c r="Y831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A832" s="8"/>
       <c r="B832" s="8"/>
       <c r="C832" s="8"/>
@@ -22965,7 +23055,7 @@
       <c r="X832" s="3"/>
       <c r="Y832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A833" s="8"/>
       <c r="B833" s="8"/>
       <c r="C833" s="8"/>
@@ -22992,7 +23082,7 @@
       <c r="X833" s="3"/>
       <c r="Y833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A834" s="8"/>
       <c r="B834" s="8"/>
       <c r="C834" s="8"/>
@@ -23019,7 +23109,7 @@
       <c r="X834" s="3"/>
       <c r="Y834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A835" s="8"/>
       <c r="B835" s="8"/>
       <c r="C835" s="8"/>
@@ -23046,7 +23136,7 @@
       <c r="X835" s="3"/>
       <c r="Y835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A836" s="8"/>
       <c r="B836" s="8"/>
       <c r="C836" s="8"/>
@@ -23073,7 +23163,7 @@
       <c r="X836" s="3"/>
       <c r="Y836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A837" s="8"/>
       <c r="B837" s="8"/>
       <c r="C837" s="8"/>
@@ -23100,7 +23190,7 @@
       <c r="X837" s="3"/>
       <c r="Y837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A838" s="8"/>
       <c r="B838" s="8"/>
       <c r="C838" s="8"/>
@@ -23127,7 +23217,7 @@
       <c r="X838" s="3"/>
       <c r="Y838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A839" s="8"/>
       <c r="B839" s="8"/>
       <c r="C839" s="8"/>
@@ -23154,7 +23244,7 @@
       <c r="X839" s="3"/>
       <c r="Y839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A840" s="8"/>
       <c r="B840" s="8"/>
       <c r="C840" s="8"/>
@@ -23181,7 +23271,7 @@
       <c r="X840" s="3"/>
       <c r="Y840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A841" s="8"/>
       <c r="B841" s="8"/>
       <c r="C841" s="8"/>
@@ -23208,7 +23298,7 @@
       <c r="X841" s="3"/>
       <c r="Y841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A842" s="8"/>
       <c r="B842" s="8"/>
       <c r="C842" s="8"/>
@@ -23235,7 +23325,7 @@
       <c r="X842" s="3"/>
       <c r="Y842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A843" s="8"/>
       <c r="B843" s="8"/>
       <c r="C843" s="8"/>
@@ -23262,7 +23352,7 @@
       <c r="X843" s="3"/>
       <c r="Y843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A844" s="8"/>
       <c r="B844" s="8"/>
       <c r="C844" s="8"/>
@@ -23289,7 +23379,7 @@
       <c r="X844" s="3"/>
       <c r="Y844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A845" s="8"/>
       <c r="B845" s="8"/>
       <c r="C845" s="8"/>
@@ -23316,7 +23406,7 @@
       <c r="X845" s="3"/>
       <c r="Y845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A846" s="8"/>
       <c r="B846" s="8"/>
       <c r="C846" s="8"/>
@@ -23343,7 +23433,7 @@
       <c r="X846" s="3"/>
       <c r="Y846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A847" s="8"/>
       <c r="B847" s="8"/>
       <c r="C847" s="8"/>
@@ -23370,7 +23460,7 @@
       <c r="X847" s="3"/>
       <c r="Y847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A848" s="8"/>
       <c r="B848" s="8"/>
       <c r="C848" s="8"/>
@@ -23397,7 +23487,7 @@
       <c r="X848" s="3"/>
       <c r="Y848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A849" s="8"/>
       <c r="B849" s="8"/>
       <c r="C849" s="8"/>
@@ -23424,7 +23514,7 @@
       <c r="X849" s="3"/>
       <c r="Y849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A850" s="8"/>
       <c r="B850" s="8"/>
       <c r="C850" s="8"/>
@@ -23451,7 +23541,7 @@
       <c r="X850" s="3"/>
       <c r="Y850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A851" s="8"/>
       <c r="B851" s="8"/>
       <c r="C851" s="8"/>
@@ -23478,7 +23568,7 @@
       <c r="X851" s="3"/>
       <c r="Y851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A852" s="8"/>
       <c r="B852" s="8"/>
       <c r="C852" s="8"/>
@@ -23505,7 +23595,7 @@
       <c r="X852" s="3"/>
       <c r="Y852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A853" s="8"/>
       <c r="B853" s="8"/>
       <c r="C853" s="8"/>
@@ -23532,7 +23622,7 @@
       <c r="X853" s="3"/>
       <c r="Y853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A854" s="8"/>
       <c r="B854" s="8"/>
       <c r="C854" s="8"/>
@@ -23559,7 +23649,7 @@
       <c r="X854" s="3"/>
       <c r="Y854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A855" s="8"/>
       <c r="B855" s="8"/>
       <c r="C855" s="8"/>
@@ -23586,7 +23676,7 @@
       <c r="X855" s="3"/>
       <c r="Y855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A856" s="8"/>
       <c r="B856" s="8"/>
       <c r="C856" s="8"/>
@@ -23613,7 +23703,7 @@
       <c r="X856" s="3"/>
       <c r="Y856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A857" s="8"/>
       <c r="B857" s="8"/>
       <c r="C857" s="8"/>
@@ -23640,7 +23730,7 @@
       <c r="X857" s="3"/>
       <c r="Y857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A858" s="8"/>
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
@@ -23667,7 +23757,7 @@
       <c r="X858" s="3"/>
       <c r="Y858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A859" s="8"/>
       <c r="B859" s="8"/>
       <c r="C859" s="8"/>
@@ -23694,7 +23784,7 @@
       <c r="X859" s="3"/>
       <c r="Y859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A860" s="8"/>
       <c r="B860" s="8"/>
       <c r="C860" s="8"/>
@@ -23721,7 +23811,7 @@
       <c r="X860" s="3"/>
       <c r="Y860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A861" s="8"/>
       <c r="B861" s="8"/>
       <c r="C861" s="8"/>
@@ -23748,7 +23838,7 @@
       <c r="X861" s="3"/>
       <c r="Y861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A862" s="8"/>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
@@ -23775,7 +23865,7 @@
       <c r="X862" s="3"/>
       <c r="Y862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A863" s="8"/>
       <c r="B863" s="8"/>
       <c r="C863" s="8"/>
@@ -23802,7 +23892,7 @@
       <c r="X863" s="3"/>
       <c r="Y863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A864" s="8"/>
       <c r="B864" s="8"/>
       <c r="C864" s="8"/>
@@ -23829,7 +23919,7 @@
       <c r="X864" s="3"/>
       <c r="Y864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A865" s="8"/>
       <c r="B865" s="8"/>
       <c r="C865" s="8"/>
@@ -23856,7 +23946,7 @@
       <c r="X865" s="3"/>
       <c r="Y865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A866" s="8"/>
       <c r="B866" s="8"/>
       <c r="C866" s="8"/>
@@ -23883,7 +23973,7 @@
       <c r="X866" s="3"/>
       <c r="Y866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A867" s="8"/>
       <c r="B867" s="8"/>
       <c r="C867" s="8"/>
@@ -23910,7 +24000,7 @@
       <c r="X867" s="3"/>
       <c r="Y867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A868" s="8"/>
       <c r="B868" s="8"/>
       <c r="C868" s="8"/>
@@ -23937,7 +24027,7 @@
       <c r="X868" s="3"/>
       <c r="Y868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A869" s="8"/>
       <c r="B869" s="8"/>
       <c r="C869" s="8"/>
@@ -23964,7 +24054,7 @@
       <c r="X869" s="3"/>
       <c r="Y869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A870" s="8"/>
       <c r="B870" s="8"/>
       <c r="C870" s="8"/>
@@ -23991,7 +24081,7 @@
       <c r="X870" s="3"/>
       <c r="Y870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A871" s="8"/>
       <c r="B871" s="8"/>
       <c r="C871" s="8"/>
@@ -24018,7 +24108,7 @@
       <c r="X871" s="3"/>
       <c r="Y871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A872" s="8"/>
       <c r="B872" s="8"/>
       <c r="C872" s="8"/>
@@ -24045,7 +24135,7 @@
       <c r="X872" s="3"/>
       <c r="Y872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A873" s="8"/>
       <c r="B873" s="8"/>
       <c r="C873" s="8"/>
@@ -24072,7 +24162,7 @@
       <c r="X873" s="3"/>
       <c r="Y873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A874" s="8"/>
       <c r="B874" s="8"/>
       <c r="C874" s="8"/>
@@ -24099,7 +24189,7 @@
       <c r="X874" s="3"/>
       <c r="Y874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A875" s="8"/>
       <c r="B875" s="8"/>
       <c r="C875" s="8"/>
@@ -24126,7 +24216,7 @@
       <c r="X875" s="3"/>
       <c r="Y875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A876" s="8"/>
       <c r="B876" s="8"/>
       <c r="C876" s="8"/>
@@ -24153,7 +24243,7 @@
       <c r="X876" s="3"/>
       <c r="Y876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A877" s="8"/>
       <c r="B877" s="8"/>
       <c r="C877" s="8"/>
@@ -24180,7 +24270,7 @@
       <c r="X877" s="3"/>
       <c r="Y877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A878" s="8"/>
       <c r="B878" s="8"/>
       <c r="C878" s="8"/>
@@ -24207,7 +24297,7 @@
       <c r="X878" s="3"/>
       <c r="Y878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A879" s="8"/>
       <c r="B879" s="8"/>
       <c r="C879" s="8"/>
@@ -24234,7 +24324,7 @@
       <c r="X879" s="3"/>
       <c r="Y879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A880" s="8"/>
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
@@ -24261,7 +24351,7 @@
       <c r="X880" s="3"/>
       <c r="Y880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A881" s="8"/>
       <c r="B881" s="8"/>
       <c r="C881" s="8"/>
@@ -24288,7 +24378,7 @@
       <c r="X881" s="3"/>
       <c r="Y881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A882" s="8"/>
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
@@ -24315,7 +24405,7 @@
       <c r="X882" s="3"/>
       <c r="Y882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A883" s="8"/>
       <c r="B883" s="8"/>
       <c r="C883" s="8"/>
@@ -24342,7 +24432,7 @@
       <c r="X883" s="3"/>
       <c r="Y883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A884" s="8"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
@@ -24369,7 +24459,7 @@
       <c r="X884" s="3"/>
       <c r="Y884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A885" s="8"/>
       <c r="B885" s="8"/>
       <c r="C885" s="8"/>
@@ -24396,7 +24486,7 @@
       <c r="X885" s="3"/>
       <c r="Y885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A886" s="8"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
@@ -24423,7 +24513,7 @@
       <c r="X886" s="3"/>
       <c r="Y886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A887" s="8"/>
       <c r="B887" s="8"/>
       <c r="C887" s="8"/>
@@ -24450,7 +24540,7 @@
       <c r="X887" s="3"/>
       <c r="Y887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A888" s="8"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
@@ -24477,7 +24567,7 @@
       <c r="X888" s="3"/>
       <c r="Y888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A889" s="8"/>
       <c r="B889" s="8"/>
       <c r="C889" s="8"/>
@@ -24504,7 +24594,7 @@
       <c r="X889" s="3"/>
       <c r="Y889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A890" s="8"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
@@ -24531,7 +24621,7 @@
       <c r="X890" s="3"/>
       <c r="Y890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A891" s="8"/>
       <c r="B891" s="8"/>
       <c r="C891" s="8"/>
@@ -24558,7 +24648,7 @@
       <c r="X891" s="3"/>
       <c r="Y891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A892" s="8"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
@@ -24585,7 +24675,7 @@
       <c r="X892" s="3"/>
       <c r="Y892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A893" s="8"/>
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
@@ -24612,7 +24702,7 @@
       <c r="X893" s="3"/>
       <c r="Y893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A894" s="8"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
@@ -24639,7 +24729,7 @@
       <c r="X894" s="3"/>
       <c r="Y894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A895" s="8"/>
       <c r="B895" s="8"/>
       <c r="C895" s="8"/>
@@ -24666,7 +24756,7 @@
       <c r="X895" s="3"/>
       <c r="Y895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A896" s="8"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
@@ -24693,7 +24783,7 @@
       <c r="X896" s="3"/>
       <c r="Y896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A897" s="8"/>
       <c r="B897" s="8"/>
       <c r="C897" s="8"/>
@@ -24720,7 +24810,7 @@
       <c r="X897" s="3"/>
       <c r="Y897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A898" s="8"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
@@ -24747,7 +24837,7 @@
       <c r="X898" s="3"/>
       <c r="Y898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A899" s="8"/>
       <c r="B899" s="8"/>
       <c r="C899" s="8"/>
@@ -24774,7 +24864,7 @@
       <c r="X899" s="3"/>
       <c r="Y899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A900" s="8"/>
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
@@ -24801,7 +24891,7 @@
       <c r="X900" s="3"/>
       <c r="Y900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A901" s="8"/>
       <c r="B901" s="8"/>
       <c r="C901" s="8"/>
@@ -24828,7 +24918,7 @@
       <c r="X901" s="3"/>
       <c r="Y901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A902" s="8"/>
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
@@ -24855,7 +24945,7 @@
       <c r="X902" s="3"/>
       <c r="Y902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A903" s="8"/>
       <c r="B903" s="8"/>
       <c r="C903" s="8"/>
@@ -24882,7 +24972,7 @@
       <c r="X903" s="3"/>
       <c r="Y903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A904" s="8"/>
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
@@ -24909,7 +24999,7 @@
       <c r="X904" s="3"/>
       <c r="Y904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A905" s="8"/>
       <c r="B905" s="8"/>
       <c r="C905" s="8"/>
@@ -24936,7 +25026,7 @@
       <c r="X905" s="3"/>
       <c r="Y905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A906" s="8"/>
       <c r="B906" s="8"/>
       <c r="C906" s="8"/>
@@ -24963,7 +25053,7 @@
       <c r="X906" s="3"/>
       <c r="Y906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A907" s="8"/>
       <c r="B907" s="8"/>
       <c r="C907" s="8"/>
@@ -24990,7 +25080,7 @@
       <c r="X907" s="3"/>
       <c r="Y907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A908" s="8"/>
       <c r="B908" s="8"/>
       <c r="C908" s="8"/>
@@ -25017,7 +25107,7 @@
       <c r="X908" s="3"/>
       <c r="Y908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A909" s="8"/>
       <c r="B909" s="8"/>
       <c r="C909" s="8"/>
@@ -25044,7 +25134,7 @@
       <c r="X909" s="3"/>
       <c r="Y909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A910" s="8"/>
       <c r="B910" s="8"/>
       <c r="C910" s="8"/>
@@ -25071,7 +25161,7 @@
       <c r="X910" s="3"/>
       <c r="Y910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A911" s="8"/>
       <c r="B911" s="8"/>
       <c r="C911" s="8"/>
@@ -25098,7 +25188,7 @@
       <c r="X911" s="3"/>
       <c r="Y911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A912" s="8"/>
       <c r="B912" s="8"/>
       <c r="C912" s="8"/>
@@ -25125,7 +25215,7 @@
       <c r="X912" s="3"/>
       <c r="Y912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A913" s="8"/>
       <c r="B913" s="8"/>
       <c r="C913" s="8"/>
@@ -25152,7 +25242,7 @@
       <c r="X913" s="3"/>
       <c r="Y913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A914" s="8"/>
       <c r="B914" s="8"/>
       <c r="C914" s="8"/>
@@ -25179,7 +25269,7 @@
       <c r="X914" s="3"/>
       <c r="Y914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A915" s="8"/>
       <c r="B915" s="8"/>
       <c r="C915" s="8"/>
@@ -25206,7 +25296,7 @@
       <c r="X915" s="3"/>
       <c r="Y915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A916" s="8"/>
       <c r="B916" s="8"/>
       <c r="C916" s="8"/>
@@ -25233,7 +25323,7 @@
       <c r="X916" s="3"/>
       <c r="Y916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A917" s="8"/>
       <c r="B917" s="8"/>
       <c r="C917" s="8"/>
@@ -25260,7 +25350,7 @@
       <c r="X917" s="3"/>
       <c r="Y917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A918" s="8"/>
       <c r="B918" s="8"/>
       <c r="C918" s="8"/>
@@ -25287,7 +25377,7 @@
       <c r="X918" s="3"/>
       <c r="Y918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A919" s="8"/>
       <c r="B919" s="8"/>
       <c r="C919" s="8"/>
@@ -25314,7 +25404,7 @@
       <c r="X919" s="3"/>
       <c r="Y919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A920" s="8"/>
       <c r="B920" s="8"/>
       <c r="C920" s="8"/>
@@ -25341,7 +25431,7 @@
       <c r="X920" s="3"/>
       <c r="Y920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A921" s="8"/>
       <c r="B921" s="8"/>
       <c r="C921" s="8"/>
@@ -25368,7 +25458,7 @@
       <c r="X921" s="3"/>
       <c r="Y921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A922" s="8"/>
       <c r="B922" s="8"/>
       <c r="C922" s="8"/>
@@ -25395,7 +25485,7 @@
       <c r="X922" s="3"/>
       <c r="Y922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A923" s="8"/>
       <c r="B923" s="8"/>
       <c r="C923" s="8"/>
@@ -25422,7 +25512,7 @@
       <c r="X923" s="3"/>
       <c r="Y923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A924" s="8"/>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
@@ -25449,7 +25539,7 @@
       <c r="X924" s="3"/>
       <c r="Y924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A925" s="8"/>
       <c r="B925" s="8"/>
       <c r="C925" s="8"/>
@@ -25476,7 +25566,7 @@
       <c r="X925" s="3"/>
       <c r="Y925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A926" s="8"/>
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
@@ -25503,7 +25593,7 @@
       <c r="X926" s="3"/>
       <c r="Y926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A927" s="8"/>
       <c r="B927" s="8"/>
       <c r="C927" s="8"/>
@@ -25530,7 +25620,7 @@
       <c r="X927" s="3"/>
       <c r="Y927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A928" s="8"/>
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
@@ -25557,7 +25647,7 @@
       <c r="X928" s="3"/>
       <c r="Y928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A929" s="8"/>
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
@@ -25584,7 +25674,7 @@
       <c r="X929" s="3"/>
       <c r="Y929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A930" s="8"/>
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
@@ -25611,7 +25701,7 @@
       <c r="X930" s="3"/>
       <c r="Y930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A931" s="8"/>
       <c r="B931" s="8"/>
       <c r="C931" s="8"/>
@@ -25638,7 +25728,7 @@
       <c r="X931" s="3"/>
       <c r="Y931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A932" s="8"/>
       <c r="B932" s="8"/>
       <c r="C932" s="8"/>
@@ -25665,7 +25755,7 @@
       <c r="X932" s="3"/>
       <c r="Y932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A933" s="8"/>
       <c r="B933" s="8"/>
       <c r="C933" s="8"/>
@@ -25692,7 +25782,7 @@
       <c r="X933" s="3"/>
       <c r="Y933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
       <c r="C934" s="8"/>
@@ -25719,7 +25809,7 @@
       <c r="X934" s="3"/>
       <c r="Y934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A935" s="8"/>
       <c r="B935" s="8"/>
       <c r="C935" s="8"/>
@@ -25746,7 +25836,7 @@
       <c r="X935" s="3"/>
       <c r="Y935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A936" s="8"/>
       <c r="B936" s="8"/>
       <c r="C936" s="8"/>
@@ -25773,7 +25863,7 @@
       <c r="X936" s="3"/>
       <c r="Y936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A937" s="8"/>
       <c r="B937" s="8"/>
       <c r="C937" s="8"/>
@@ -25800,7 +25890,7 @@
       <c r="X937" s="3"/>
       <c r="Y937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A938" s="8"/>
       <c r="B938" s="8"/>
       <c r="C938" s="8"/>
@@ -25827,7 +25917,7 @@
       <c r="X938" s="3"/>
       <c r="Y938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A939" s="8"/>
       <c r="B939" s="8"/>
       <c r="C939" s="8"/>
@@ -25854,7 +25944,7 @@
       <c r="X939" s="3"/>
       <c r="Y939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A940" s="8"/>
       <c r="B940" s="8"/>
       <c r="C940" s="8"/>
@@ -25881,7 +25971,7 @@
       <c r="X940" s="3"/>
       <c r="Y940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A941" s="8"/>
       <c r="B941" s="8"/>
       <c r="C941" s="8"/>
@@ -25908,7 +25998,7 @@
       <c r="X941" s="3"/>
       <c r="Y941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A942" s="8"/>
       <c r="B942" s="8"/>
       <c r="C942" s="8"/>
@@ -25935,7 +26025,7 @@
       <c r="X942" s="3"/>
       <c r="Y942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A943" s="8"/>
       <c r="B943" s="8"/>
       <c r="C943" s="8"/>
@@ -25962,7 +26052,7 @@
       <c r="X943" s="3"/>
       <c r="Y943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A944" s="8"/>
       <c r="B944" s="8"/>
       <c r="C944" s="8"/>
@@ -25989,7 +26079,7 @@
       <c r="X944" s="3"/>
       <c r="Y944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A945" s="8"/>
       <c r="B945" s="8"/>
       <c r="C945" s="8"/>
@@ -26016,7 +26106,7 @@
       <c r="X945" s="3"/>
       <c r="Y945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A946" s="8"/>
       <c r="B946" s="8"/>
       <c r="C946" s="8"/>
@@ -26043,7 +26133,7 @@
       <c r="X946" s="3"/>
       <c r="Y946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A947" s="8"/>
       <c r="B947" s="8"/>
       <c r="C947" s="8"/>
@@ -26070,7 +26160,7 @@
       <c r="X947" s="3"/>
       <c r="Y947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A948" s="8"/>
       <c r="B948" s="8"/>
       <c r="C948" s="8"/>
@@ -26097,7 +26187,7 @@
       <c r="X948" s="3"/>
       <c r="Y948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A949" s="8"/>
       <c r="B949" s="8"/>
       <c r="C949" s="8"/>
@@ -26124,7 +26214,7 @@
       <c r="X949" s="3"/>
       <c r="Y949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A950" s="8"/>
       <c r="B950" s="8"/>
       <c r="C950" s="8"/>
@@ -26151,7 +26241,7 @@
       <c r="X950" s="3"/>
       <c r="Y950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A951" s="8"/>
       <c r="B951" s="8"/>
       <c r="C951" s="8"/>
@@ -26178,7 +26268,7 @@
       <c r="X951" s="3"/>
       <c r="Y951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A952" s="8"/>
       <c r="B952" s="8"/>
       <c r="C952" s="8"/>
@@ -26205,7 +26295,7 @@
       <c r="X952" s="3"/>
       <c r="Y952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A953" s="8"/>
       <c r="B953" s="8"/>
       <c r="C953" s="8"/>
@@ -26232,7 +26322,7 @@
       <c r="X953" s="3"/>
       <c r="Y953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A954" s="8"/>
       <c r="B954" s="8"/>
       <c r="C954" s="8"/>
@@ -26259,7 +26349,7 @@
       <c r="X954" s="3"/>
       <c r="Y954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A955" s="8"/>
       <c r="B955" s="8"/>
       <c r="C955" s="8"/>
@@ -26286,7 +26376,7 @@
       <c r="X955" s="3"/>
       <c r="Y955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A956" s="8"/>
       <c r="B956" s="8"/>
       <c r="C956" s="8"/>
@@ -26313,7 +26403,7 @@
       <c r="X956" s="3"/>
       <c r="Y956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A957" s="8"/>
       <c r="B957" s="8"/>
       <c r="C957" s="8"/>
@@ -26340,7 +26430,7 @@
       <c r="X957" s="3"/>
       <c r="Y957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A958" s="8"/>
       <c r="B958" s="8"/>
       <c r="C958" s="8"/>
@@ -26367,7 +26457,7 @@
       <c r="X958" s="3"/>
       <c r="Y958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A959" s="8"/>
       <c r="B959" s="8"/>
       <c r="C959" s="8"/>
@@ -26394,7 +26484,7 @@
       <c r="X959" s="3"/>
       <c r="Y959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A960" s="8"/>
       <c r="B960" s="8"/>
       <c r="C960" s="8"/>
@@ -26421,7 +26511,7 @@
       <c r="X960" s="3"/>
       <c r="Y960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A961" s="8"/>
       <c r="B961" s="8"/>
       <c r="C961" s="8"/>
@@ -26448,7 +26538,7 @@
       <c r="X961" s="3"/>
       <c r="Y961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A962" s="8"/>
       <c r="B962" s="8"/>
       <c r="C962" s="8"/>
@@ -26475,7 +26565,7 @@
       <c r="X962" s="3"/>
       <c r="Y962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A963" s="8"/>
       <c r="B963" s="8"/>
       <c r="C963" s="8"/>
@@ -26502,7 +26592,7 @@
       <c r="X963" s="3"/>
       <c r="Y963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A964" s="8"/>
       <c r="B964" s="8"/>
       <c r="C964" s="8"/>
@@ -26529,7 +26619,7 @@
       <c r="X964" s="3"/>
       <c r="Y964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A965" s="8"/>
       <c r="B965" s="8"/>
       <c r="C965" s="8"/>
@@ -26556,7 +26646,7 @@
       <c r="X965" s="3"/>
       <c r="Y965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A966" s="8"/>
       <c r="B966" s="8"/>
       <c r="C966" s="8"/>
@@ -26583,7 +26673,7 @@
       <c r="X966" s="3"/>
       <c r="Y966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A967" s="8"/>
       <c r="B967" s="8"/>
       <c r="C967" s="8"/>
@@ -26610,7 +26700,7 @@
       <c r="X967" s="3"/>
       <c r="Y967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A968" s="8"/>
       <c r="B968" s="8"/>
       <c r="C968" s="8"/>
@@ -26637,7 +26727,7 @@
       <c r="X968" s="3"/>
       <c r="Y968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A969" s="8"/>
       <c r="B969" s="8"/>
       <c r="C969" s="8"/>
@@ -26664,7 +26754,7 @@
       <c r="X969" s="3"/>
       <c r="Y969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A970" s="8"/>
       <c r="B970" s="8"/>
       <c r="C970" s="8"/>
@@ -26693,17 +26783,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B970">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$E2="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D970">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(TODAY()=$D2,NOT($D2=""),$E2&lt;&gt;"Terminé")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D970">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(NOW()&gt;$D2,NOT($D2=""),$E2&lt;&gt;"Terminé",$E2&lt;&gt;"À re vérifier")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26713,28 +26803,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B970">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$C2="Camille"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B970">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$C2="Edner"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B970">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$C2="Franklin"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C970">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C970" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Camille,Edner,Franklin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E970">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E970" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"En attente,Attribué,En cours,À re vérifier,Terminé"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/To Do list.xlsx
+++ b/To Do list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B59FF81-E2C5-4373-BF80-3EB5B5F373CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72638990-7F24-4344-BA37-49FDD795231B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Tâche</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Camille</t>
-  </si>
-  <si>
-    <t>À re vérifier</t>
   </si>
   <si>
     <t>Faire Use case</t>
@@ -76,25 +73,13 @@
     <t>Ajouter les IA</t>
   </si>
   <si>
-    <t>identifier commentaires positifs ou négatif</t>
-  </si>
-  <si>
-    <t>faire moyenne des score dans Movie</t>
-  </si>
-  <si>
     <t>des calculs de stats de Bdd</t>
-  </si>
-  <si>
-    <t>trier par ordre chronologique commentaires dans Movie</t>
   </si>
   <si>
     <t>Ajouter class panier</t>
   </si>
   <si>
     <t>Ajouter attributs à Movie</t>
-  </si>
-  <si>
-    <t>attribut prix en long</t>
   </si>
   <si>
     <t>Ajouter attributs à User</t>
@@ -108,6 +93,30 @@
   <si>
     <t>dans l'UML et dans le code</t>
   </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>classes User et Admin</t>
+  </si>
+  <si>
+    <t>classes Bdd, Factures et Panier</t>
+  </si>
+  <si>
+    <t>trier par ordre chronologique les commentaires dans Movie</t>
+  </si>
+  <si>
+    <t>attribut prix, type --&gt; long</t>
+  </si>
+  <si>
+    <t>identifier commentaires positifs ou négatifs</t>
+  </si>
+  <si>
+    <t>faire moyenne des scores dans Movie</t>
+  </si>
+  <si>
+    <t>class Score, Comment, Movie et Person</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,6 +143,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +214,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,9 +515,9 @@
   </sheetPr>
   <dimension ref="A1:Y970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -499,7 +528,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,56 +565,19 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45383</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>45383</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -610,15 +602,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -642,14 +636,18 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+      <c r="A5" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -672,15 +670,19 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+    <row r="6" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -704,14 +706,18 @@
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="10" t="s">
+        <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -735,16 +741,18 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
+      <c r="A8" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -768,16 +776,18 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
+      <c r="A9" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -801,16 +811,18 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
+      <c r="A10" s="10" t="s">
+        <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -833,17 +845,19 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -868,13 +882,15 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -899,15 +915,15 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -931,16 +947,18 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
+      <c r="A14" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -965,15 +983,15 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
       </c>
-      <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -997,11 +1015,19 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1024,11 +1050,19 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1051,11 +1085,17 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1078,11 +1118,15 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1103,303 +1147,6 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -26782,49 +26529,50 @@
       <c r="Y970" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B970">
+  <conditionalFormatting sqref="A31:B970 A3:B19">
     <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$E2="Terminé"</formula>
+      <formula>$E3="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D970">
+  <conditionalFormatting sqref="D31:D970 D3:D19">
     <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND(TODAY()=$D2,NOT($D2=""),$E2&lt;&gt;"Terminé")</formula>
+      <formula>AND(TODAY()=$D3,NOT($D3=""),$E3&lt;&gt;"Terminé")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D970">
+  <conditionalFormatting sqref="D31:D970 D3:D19">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND(NOW()&gt;$D2,NOT($D2=""),$E2&lt;&gt;"Terminé",$E2&lt;&gt;"À re vérifier")</formula>
+      <formula>AND(NOW()&gt;$D3,NOT($D3=""),$E3&lt;&gt;"Terminé",$E3&lt;&gt;"À re vérifier")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B970">
+  <conditionalFormatting sqref="A31:B970 A3:B19">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$E2="À re vérifier"</formula>
+      <formula>$E3="À re vérifier"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B970">
+  <conditionalFormatting sqref="A31:B970 A3:B19">
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$C2="Camille"</formula>
+      <formula>$C3="Camille"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B970">
+  <conditionalFormatting sqref="A31:B970 A3:B19">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$C2="Edner"</formula>
+      <formula>$C3="Edner"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B970">
+  <conditionalFormatting sqref="A31:B970 A3:B19">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$C2="Franklin"</formula>
+      <formula>$C3="Franklin"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C970" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C31:C970 C3:C19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Camille,Edner,Franklin"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E970" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E31:E970 E3:E19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"En attente,Attribué,En cours,À re vérifier,Terminé"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>